--- a/EXCEL_DEMO.xlsx
+++ b/EXCEL_DEMO.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{531F360F-178A-4AAB-9809-92C00283226E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -18,8 +19,19 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>ALAIN CELL1</t>
+  </si>
+  <si>
+    <t>ALAIN CELL 2</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -330,13 +342,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B6:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/EXCEL_DEMO.xlsx
+++ b/EXCEL_DEMO.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3068B073-AAD1-459E-A080-C3778C85CB1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -18,8 +19,28 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>Surprise</t>
+  </si>
+  <si>
+    <t>Hi</t>
+  </si>
+  <si>
+    <t>Bernard</t>
+  </si>
+  <si>
+    <t>is</t>
+  </si>
+  <si>
+    <t>Awesome</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -330,13 +351,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/EXCEL_DEMO.xlsx
+++ b/EXCEL_DEMO.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3068B073-AAD1-459E-A080-C3778C85CB1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CEE389F-4C57-4218-8AB8-AD20A1F5861D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,21 +20,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Surprise</t>
   </si>
   <si>
-    <t>Hi</t>
+    <t>Awesome</t>
   </si>
   <si>
-    <t>Bernard</t>
-  </si>
-  <si>
-    <t>is</t>
-  </si>
-  <si>
-    <t>Awesome</t>
+    <t>my 2nd change</t>
   </si>
 </sst>
 </file>
@@ -355,14 +349,14 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -371,14 +365,14 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>3</v>
+      <c r="B4">
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/EXCEL_DEMO.xlsx
+++ b/EXCEL_DEMO.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3068B073-AAD1-459E-A080-C3778C85CB1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62E5BC3F-A293-49EC-AD5B-41356AD91E2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,13 +28,13 @@
     <t>Hi</t>
   </si>
   <si>
-    <t>Bernard</t>
-  </si>
-  <si>
     <t>is</t>
   </si>
   <si>
     <t>Awesome</t>
+  </si>
+  <si>
+    <t>main</t>
   </si>
 </sst>
 </file>
@@ -355,7 +355,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -372,13 +372,13 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/EXCEL_DEMO.xlsx
+++ b/EXCEL_DEMO.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20395"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3068B073-AAD1-459E-A080-C3778C85CB1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07675742-49E5-4E70-9C5C-0A2CE1B90921}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Surprise</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t>Awesome</t>
+  </si>
+  <si>
+    <t>Jad</t>
   </si>
 </sst>
 </file>
@@ -352,25 +355,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -379,6 +382,11 @@
       </c>
       <c r="C4" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J14" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/EXCEL_DEMO.xlsx
+++ b/EXCEL_DEMO.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3068B073-AAD1-459E-A080-C3778C85CB1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D5F1C1-F1F9-4F58-8711-A2EE3BA79F1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Surprise</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t>Awesome</t>
+  </si>
+  <si>
+    <t>New test</t>
   </si>
 </sst>
 </file>
@@ -355,7 +358,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -364,6 +367,9 @@
       <c r="A1" t="s">
         <v>1</v>
       </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C3" t="s">

--- a/EXCEL_DEMO.xlsx
+++ b/EXCEL_DEMO.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3068B073-AAD1-459E-A080-C3778C85CB1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95C59F57-8EAF-45E6-B8CB-815E89E217B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Surprise</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t>Awesome</t>
+  </si>
+  <si>
+    <t>alain edits here</t>
   </si>
 </sst>
 </file>
@@ -352,25 +355,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -379,6 +382,11 @@
       </c>
       <c r="C4" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/EXCEL_DEMO.xlsx
+++ b/EXCEL_DEMO.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D5F1C1-F1F9-4F58-8711-A2EE3BA79F1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB4D92F4-5575-4EF2-A2EC-EB3871242AE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Surprise</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>New test</t>
+  </si>
+  <si>
+    <t>Jad</t>
   </si>
 </sst>
 </file>
@@ -355,15 +358,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -371,12 +374,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -385,6 +388,11 @@
       </c>
       <c r="C4" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J14" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
